--- a/src/test/resources/CreateOrganisation.xlsx
+++ b/src/test/resources/CreateOrganisation.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\selinium\Advsel8\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9765D-135E-4075-B68E-16CC53B03A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91029F72-4564-4409-8CC3-E4CB03CA384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{A2AE43A3-E55D-4C2F-B5ED-9D133EF7ACB4}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7785" firstSheet="2" activeTab="4" xr2:uid="{A2AE43A3-E55D-4C2F-B5ED-9D133EF7ACB4}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationTestData" sheetId="1" r:id="rId1"/>
     <sheet name="ContactTestdata" sheetId="3" r:id="rId2"/>
-    <sheet name="Leadstestdata" sheetId="4" r:id="rId3"/>
-    <sheet name="EventsTestData" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Leadstestdata" sheetId="4" r:id="rId4"/>
+    <sheet name="EventsTestData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Status</t>
   </si>
@@ -193,12 +194,16 @@
   </si>
   <si>
     <t>null88</t>
+  </si>
+  <si>
+    <t>null1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +265,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +688,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.85546875"/>
+    <col min="2" max="3" customWidth="true" width="37.5703125"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,11 +811,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="2" max="2" customWidth="true" width="31.7109375"/>
+    <col min="3" max="3" customWidth="true" width="29.0"/>
+    <col min="4" max="4" customWidth="true" width="22.7109375"/>
+    <col min="5" max="5" customWidth="true" width="17.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,6 +914,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B001590-745C-4D70-B576-CC6F314CAB67}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51CF792-A3C1-4E70-A610-65996BFA2E8E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -916,10 +935,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.42578125"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875"/>
+    <col min="3" max="3" customWidth="true" width="23.7109375"/>
+    <col min="4" max="4" customWidth="true" width="23.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,7 +1032,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,20 +1057,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD00BD8-5256-4306-B163-BB8C697535E1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125"/>
+    <col min="2" max="2" customWidth="true" width="21.0"/>
+    <col min="3" max="3" customWidth="true" width="26.85546875"/>
+    <col min="4" max="4" customWidth="true" width="28.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
